--- a/reports/abnormal_table_20251224.xlsx
+++ b/reports/abnormal_table_20251224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,10 @@
         <v>1571</v>
       </c>
       <c r="G2" t="n">
-        <v>4.288461538461538</v>
+        <v>4.372990353697749</v>
       </c>
       <c r="H2" t="n">
-        <v>253.3808569023534</v>
+        <v>253.8018323551573</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>6165</v>
       </c>
       <c r="G3" t="n">
-        <v>32.33098591549296</v>
+        <v>32.94326241134752</v>
       </c>
       <c r="H3" t="n">
-        <v>1380.303547260226</v>
+        <v>1385.205079056371</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -576,10 +576,10 @@
         <v>5473</v>
       </c>
       <c r="G4" t="n">
-        <v>32.33098591549296</v>
+        <v>32.94326241134752</v>
       </c>
       <c r="H4" t="n">
-        <v>1380.303547260226</v>
+        <v>1385.205079056371</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>5473</v>
       </c>
       <c r="G5" t="n">
-        <v>32.33098591549296</v>
+        <v>32.94326241134752</v>
       </c>
       <c r="H5" t="n">
-        <v>1380.303547260226</v>
+        <v>1385.205079056371</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>314</v>
       </c>
       <c r="G6" t="n">
-        <v>8.473684210526315</v>
+        <v>8.847826086956522</v>
       </c>
       <c r="H6" t="n">
-        <v>49.82198995514636</v>
+        <v>50.43153007783325</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -763,33 +763,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>伸興</t>
+          <t>恩德</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>永豐金-台中</t>
+          <t>元大-竹科</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>329</v>
+        <v>1074</v>
       </c>
       <c r="F10" t="n">
-        <v>309</v>
+        <v>1074</v>
       </c>
       <c r="G10" t="n">
-        <v>17.78571428571428</v>
+        <v>-1.949907235621521</v>
       </c>
       <c r="H10" t="n">
-        <v>90.10948773697352</v>
+        <v>140.4799106375795</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -798,33 +798,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>華新</t>
+          <t>恩德</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>凱基-台北</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7162</v>
+        <v>1143</v>
       </c>
       <c r="F11" t="n">
-        <v>6753</v>
+        <v>1143</v>
       </c>
       <c r="G11" t="n">
-        <v>3.311704834605598</v>
+        <v>-1.949907235621521</v>
       </c>
       <c r="H11" t="n">
-        <v>462.3783029868652</v>
+        <v>140.4799106375795</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -833,33 +833,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>大亞</t>
+          <t>恩德</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>富邦-板橋</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="E12" t="n">
-        <v>264</v>
+        <v>950</v>
       </c>
       <c r="F12" t="n">
-        <v>264</v>
+        <v>1074</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3166666666666667</v>
+        <v>-1.949907235621521</v>
       </c>
       <c r="H12" t="n">
-        <v>31.23426886963625</v>
+        <v>140.4799106375795</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -868,33 +868,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>東聯</t>
+          <t>伸興</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富邦-和美</t>
+          <t>永豐金-台中</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>600</v>
+        <v>329</v>
       </c>
       <c r="F13" t="n">
-        <v>600</v>
+        <v>309</v>
       </c>
       <c r="G13" t="n">
-        <v>9.977777777777778</v>
+        <v>17.78571428571428</v>
       </c>
       <c r="H13" t="n">
-        <v>94.27606678090027</v>
+        <v>90.10948773697352</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -903,33 +903,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中纖</t>
+          <t>華新</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>國票-北高雄</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="E14" t="n">
-        <v>1000</v>
+        <v>7162</v>
       </c>
       <c r="F14" t="n">
-        <v>990</v>
+        <v>6753</v>
       </c>
       <c r="G14" t="n">
-        <v>10.03947368421053</v>
+        <v>3.971974522292994</v>
       </c>
       <c r="H14" t="n">
-        <v>124.4364834807406</v>
+        <v>462.5196374532624</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -938,33 +938,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>訊聯</t>
+          <t>大亞</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>444</v>
+        <v>264</v>
       </c>
       <c r="F15" t="n">
-        <v>444</v>
+        <v>264</v>
       </c>
       <c r="G15" t="n">
-        <v>12.30612244897959</v>
+        <v>-0.1639344262295082</v>
       </c>
       <c r="H15" t="n">
-        <v>78.78774335771624</v>
+        <v>31.02741007766997</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -973,33 +973,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中華</t>
+          <t>東聯</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>康和</t>
+          <t>富邦-和美</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>299</v>
+        <v>600</v>
       </c>
       <c r="F16" t="n">
-        <v>299</v>
+        <v>600</v>
       </c>
       <c r="G16" t="n">
-        <v>13.7037037037037</v>
+        <v>9.977777777777778</v>
       </c>
       <c r="H16" t="n">
-        <v>65.73654575115312</v>
+        <v>94.27606678090027</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1008,33 +1008,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>長榮鋼</t>
+          <t>中纖</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>國票-北高雄</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2236</v>
+        <v>1000</v>
       </c>
       <c r="F17" t="n">
-        <v>2236</v>
+        <v>990</v>
       </c>
       <c r="G17" t="n">
-        <v>56.925</v>
+        <v>10.64473684210526</v>
       </c>
       <c r="H17" t="n">
-        <v>548.6970761816182</v>
+        <v>124.2967099534946</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1043,33 +1043,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>長榮鋼</t>
+          <t>訊聯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2236</v>
+        <v>444</v>
       </c>
       <c r="F18" t="n">
-        <v>2236</v>
+        <v>444</v>
       </c>
       <c r="G18" t="n">
-        <v>56.925</v>
+        <v>11.9</v>
       </c>
       <c r="H18" t="n">
-        <v>548.6970761816182</v>
+        <v>78.03250238568175</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1078,33 +1078,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>中華</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>凱基-台北</t>
+          <t>康和</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>661</v>
+        <v>299</v>
       </c>
       <c r="F19" t="n">
-        <v>661</v>
+        <v>299</v>
       </c>
       <c r="G19" t="n">
-        <v>1.635245901639344</v>
+        <v>13.7037037037037</v>
       </c>
       <c r="H19" t="n">
-        <v>231.9362986982605</v>
+        <v>65.73654575115312</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1113,33 +1113,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>長榮鋼</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1579</v>
+        <v>2236</v>
       </c>
       <c r="F20" t="n">
-        <v>1098</v>
+        <v>2236</v>
       </c>
       <c r="G20" t="n">
-        <v>1.635245901639344</v>
+        <v>56.925</v>
       </c>
       <c r="H20" t="n">
-        <v>231.9362986982605</v>
+        <v>548.6970761816182</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1148,33 +1148,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>長榮鋼</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-356</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>779</v>
+        <v>2236</v>
       </c>
       <c r="F21" t="n">
-        <v>1135</v>
+        <v>2236</v>
       </c>
       <c r="G21" t="n">
-        <v>1.635245901639344</v>
+        <v>56.925</v>
       </c>
       <c r="H21" t="n">
-        <v>231.9362986982605</v>
+        <v>548.6970761816182</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1183,33 +1183,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>元富</t>
+          <t>凱基-台北</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>365</v>
+        <v>661</v>
       </c>
       <c r="F22" t="n">
-        <v>365</v>
+        <v>661</v>
       </c>
       <c r="G22" t="n">
-        <v>3.476923076923077</v>
+        <v>1.909465020576132</v>
       </c>
       <c r="H22" t="n">
-        <v>40.09566378082603</v>
+        <v>232.4169451603013</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1218,33 +1218,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>凱基</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-4652</v>
+        <v>481</v>
       </c>
       <c r="E23" t="n">
-        <v>1437</v>
+        <v>1579</v>
       </c>
       <c r="F23" t="n">
-        <v>6089</v>
+        <v>1098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6594488188976378</v>
+        <v>1.909465020576132</v>
       </c>
       <c r="H23" t="n">
-        <v>328.2552648543913</v>
+        <v>232.4169451603013</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1253,33 +1253,33 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1463</v>
+        <v>-356</v>
       </c>
       <c r="E24" t="n">
-        <v>1726</v>
+        <v>779</v>
       </c>
       <c r="F24" t="n">
-        <v>263</v>
+        <v>1135</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6594488188976378</v>
+        <v>1.909465020576132</v>
       </c>
       <c r="H24" t="n">
-        <v>328.2552648543913</v>
+        <v>232.4169451603013</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1288,33 +1288,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>元富</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1627</v>
+        <v>365</v>
       </c>
       <c r="F25" t="n">
-        <v>1081</v>
+        <v>365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6594488188976378</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="H25" t="n">
-        <v>328.2552648543913</v>
+        <v>39.94401837122341</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1323,33 +1323,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>凱基</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-3075</v>
+        <v>-4652</v>
       </c>
       <c r="E26" t="n">
-        <v>2268</v>
+        <v>1437</v>
       </c>
       <c r="F26" t="n">
-        <v>5343</v>
+        <v>6089</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5417789757412399</v>
+        <v>0.6377952755905512</v>
       </c>
       <c r="H26" t="n">
-        <v>192.5836488773505</v>
+        <v>328.2312029536014</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1358,33 +1358,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-955</v>
+        <v>1463</v>
       </c>
       <c r="E27" t="n">
-        <v>3393</v>
+        <v>1726</v>
       </c>
       <c r="F27" t="n">
-        <v>4348</v>
+        <v>263</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5417789757412399</v>
+        <v>0.6377952755905512</v>
       </c>
       <c r="H27" t="n">
-        <v>192.5836488773505</v>
+        <v>328.2312029536014</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1393,33 +1393,33 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>366</v>
+        <v>546</v>
       </c>
       <c r="E28" t="n">
-        <v>12228</v>
+        <v>1627</v>
       </c>
       <c r="F28" t="n">
-        <v>11862</v>
+        <v>1081</v>
       </c>
       <c r="G28" t="n">
-        <v>6.11501210653753</v>
+        <v>0.6377952755905512</v>
       </c>
       <c r="H28" t="n">
-        <v>1179.601270113402</v>
+        <v>328.2312029536014</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1428,12 +1428,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1442,19 +1442,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-3075</v>
       </c>
       <c r="E29" t="n">
-        <v>24959</v>
+        <v>2268</v>
       </c>
       <c r="F29" t="n">
-        <v>24959</v>
+        <v>5343</v>
       </c>
       <c r="G29" t="n">
-        <v>6.11501210653753</v>
+        <v>0.4878706199460917</v>
       </c>
       <c r="H29" t="n">
-        <v>1179.601270113402</v>
+        <v>192.592265043106</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1463,12 +1463,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2166</v>
+        <v>-955</v>
       </c>
       <c r="E30" t="n">
-        <v>14244</v>
+        <v>3393</v>
       </c>
       <c r="F30" t="n">
-        <v>12078</v>
+        <v>4348</v>
       </c>
       <c r="G30" t="n">
-        <v>6.11501210653753</v>
+        <v>0.4878706199460917</v>
       </c>
       <c r="H30" t="n">
-        <v>1179.601270113402</v>
+        <v>192.592265043106</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1498,33 +1498,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>智邦</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="E31" t="n">
-        <v>423</v>
+        <v>12228</v>
       </c>
       <c r="F31" t="n">
-        <v>423</v>
+        <v>11862</v>
       </c>
       <c r="G31" t="n">
-        <v>2.839285714285714</v>
+        <v>6.990267639902676</v>
       </c>
       <c r="H31" t="n">
-        <v>95.88340965335581</v>
+        <v>1182.61966684021</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1533,33 +1533,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>智邦</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>423</v>
+        <v>24959</v>
       </c>
       <c r="F32" t="n">
-        <v>423</v>
+        <v>24959</v>
       </c>
       <c r="G32" t="n">
-        <v>2.839285714285714</v>
+        <v>6.990267639902676</v>
       </c>
       <c r="H32" t="n">
-        <v>95.88340965335581</v>
+        <v>1182.61966684021</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1568,33 +1568,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>華碩</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2166</v>
       </c>
       <c r="E33" t="n">
-        <v>4583</v>
+        <v>14244</v>
       </c>
       <c r="F33" t="n">
-        <v>4583</v>
+        <v>12078</v>
       </c>
       <c r="G33" t="n">
-        <v>57.23456790123457</v>
+        <v>6.990267639902676</v>
       </c>
       <c r="H33" t="n">
-        <v>778.4670396298893</v>
+        <v>1182.61966684021</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1603,33 +1603,33 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>華碩</t>
+          <t>智邦</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4583</v>
+        <v>423</v>
       </c>
       <c r="F34" t="n">
-        <v>4583</v>
+        <v>423</v>
       </c>
       <c r="G34" t="n">
-        <v>57.23456790123457</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="H34" t="n">
-        <v>778.4670396298893</v>
+        <v>96.71176238268529</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -1638,33 +1638,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>金像電</t>
+          <t>智邦</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="F35" t="n">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.815126050420168</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="H35" t="n">
-        <v>70.46455610850552</v>
+        <v>96.71176238268529</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1673,33 +1673,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>金像電</t>
+          <t>華碩</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>403</v>
+        <v>4583</v>
       </c>
       <c r="F36" t="n">
-        <v>403</v>
+        <v>4583</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.815126050420168</v>
+        <v>57.23456790123457</v>
       </c>
       <c r="H36" t="n">
-        <v>70.46455610850552</v>
+        <v>778.4670396298893</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1708,33 +1708,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>華碩</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>華南永昌</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>634</v>
+        <v>4583</v>
       </c>
       <c r="F37" t="n">
-        <v>634</v>
+        <v>4583</v>
       </c>
       <c r="G37" t="n">
-        <v>12.54545454545454</v>
+        <v>57.23456790123457</v>
       </c>
       <c r="H37" t="n">
-        <v>122.9733433790355</v>
+        <v>778.4670396298893</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1743,33 +1743,33 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>金像電</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>4410</v>
+        <v>317</v>
       </c>
       <c r="F38" t="n">
-        <v>4162</v>
+        <v>317</v>
       </c>
       <c r="G38" t="n">
-        <v>3.677321156773211</v>
+        <v>-1.433333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>411.8546977528672</v>
+        <v>70.10541082862991</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -1778,33 +1778,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>金像電</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>4410</v>
+        <v>403</v>
       </c>
       <c r="F39" t="n">
-        <v>4162</v>
+        <v>403</v>
       </c>
       <c r="G39" t="n">
-        <v>3.677321156773211</v>
+        <v>-1.433333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>411.8546977528672</v>
+        <v>70.10541082862991</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -1813,33 +1813,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>第一金-嘉義</t>
+          <t>華南永昌</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1200</v>
+        <v>634</v>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>634</v>
       </c>
       <c r="G40" t="n">
-        <v>3.677321156773211</v>
+        <v>12.54545454545454</v>
       </c>
       <c r="H40" t="n">
-        <v>411.8546977528672</v>
+        <v>122.9733433790355</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -1848,33 +1848,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1972</v>
       </c>
       <c r="E41" t="n">
-        <v>1201</v>
+        <v>1036</v>
       </c>
       <c r="F41" t="n">
-        <v>1201</v>
+        <v>3008</v>
       </c>
       <c r="G41" t="n">
-        <v>14.60714285714286</v>
+        <v>-0.06285714285714286</v>
       </c>
       <c r="H41" t="n">
-        <v>214.1921910885052</v>
+        <v>124.3512855769717</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1883,33 +1883,33 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>富邦證券</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1972</v>
       </c>
       <c r="E42" t="n">
-        <v>1201</v>
+        <v>1036</v>
       </c>
       <c r="F42" t="n">
-        <v>1201</v>
+        <v>3008</v>
       </c>
       <c r="G42" t="n">
-        <v>14.60714285714286</v>
+        <v>-0.06285714285714286</v>
       </c>
       <c r="H42" t="n">
-        <v>214.1921910885052</v>
+        <v>124.3512855769717</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -1918,33 +1918,33 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>宏達電</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>群益金鼎-敦南</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1320</v>
       </c>
       <c r="E43" t="n">
-        <v>299</v>
+        <v>1181</v>
       </c>
       <c r="F43" t="n">
-        <v>299</v>
+        <v>2501</v>
       </c>
       <c r="G43" t="n">
-        <v>2.120535714285714</v>
+        <v>-0.06285714285714286</v>
       </c>
       <c r="H43" t="n">
-        <v>37.48110109938124</v>
+        <v>124.3512855769717</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -1953,33 +1953,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>興富發</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E44" t="n">
-        <v>706</v>
+        <v>4410</v>
       </c>
       <c r="F44" t="n">
-        <v>706</v>
+        <v>4162</v>
       </c>
       <c r="G44" t="n">
-        <v>3.396341463414634</v>
+        <v>3.826952526799388</v>
       </c>
       <c r="H44" t="n">
-        <v>82.42844964990164</v>
+        <v>413.145147932512</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -1988,33 +1988,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>群益金鼎</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E45" t="n">
-        <v>3875</v>
+        <v>4410</v>
       </c>
       <c r="F45" t="n">
-        <v>3875</v>
+        <v>4162</v>
       </c>
       <c r="G45" t="n">
-        <v>7.480952380952381</v>
+        <v>3.826952526799388</v>
       </c>
       <c r="H45" t="n">
-        <v>275.3212514527002</v>
+        <v>413.145147932512</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2023,33 +2023,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>裕民</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>第一金-嘉義</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2130</v>
+        <v>1200</v>
       </c>
       <c r="F46" t="n">
-        <v>2130</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="n">
-        <v>4.642335766423358</v>
+        <v>3.826952526799388</v>
       </c>
       <c r="H46" t="n">
-        <v>195.6889690459552</v>
+        <v>413.145147932512</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -2058,33 +2058,33 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>超豐</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>台新</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>6911</v>
+        <v>478</v>
       </c>
       <c r="F47" t="n">
-        <v>6416</v>
+        <v>478</v>
       </c>
       <c r="G47" t="n">
-        <v>1.168055555555556</v>
+        <v>2.478991596638656</v>
       </c>
       <c r="H47" t="n">
-        <v>409.8347349427764</v>
+        <v>63.02853800619401</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2093,33 +2093,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>超豐</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>台新證券</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>735</v>
+        <v>478</v>
       </c>
       <c r="F48" t="n">
-        <v>735</v>
+        <v>478</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.2901234567901235</v>
+        <v>2.478991596638656</v>
       </c>
       <c r="H48" t="n">
-        <v>223.2677156315449</v>
+        <v>63.02853800619401</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2128,33 +2128,33 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>超豐</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>香港上海匯豐</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="E49" t="n">
-        <v>961</v>
+        <v>360</v>
       </c>
       <c r="F49" t="n">
-        <v>961</v>
+        <v>434</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.2901234567901235</v>
+        <v>2.478991596638656</v>
       </c>
       <c r="H49" t="n">
-        <v>223.2677156315449</v>
+        <v>63.02853800619401</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2163,33 +2163,33 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3048</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>3249</v>
+        <v>1201</v>
       </c>
       <c r="F50" t="n">
-        <v>201</v>
+        <v>1201</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.2901234567901235</v>
+        <v>14.89189189189189</v>
       </c>
       <c r="H50" t="n">
-        <v>223.2677156315449</v>
+        <v>215.111529269284</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -2198,33 +2198,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>星宇航空</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>291</v>
+        <v>1201</v>
       </c>
       <c r="F51" t="n">
-        <v>291</v>
+        <v>1201</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.9221556886227545</v>
+        <v>14.89189189189189</v>
       </c>
       <c r="H51" t="n">
-        <v>28.86820780427903</v>
+        <v>215.111529269284</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2233,33 +2233,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>宏達電</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>彰銀-七賢</t>
+          <t>群益金鼎-敦南</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2007</v>
+        <v>299</v>
       </c>
       <c r="F52" t="n">
-        <v>2007</v>
+        <v>299</v>
       </c>
       <c r="G52" t="n">
-        <v>6.208860759493671</v>
+        <v>2.04932735426009</v>
       </c>
       <c r="H52" t="n">
-        <v>177.3766388871366</v>
+        <v>37.41046111580103</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -2268,33 +2268,33 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>三商壽</t>
+          <t>興富發</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>4799</v>
+        <v>706</v>
       </c>
       <c r="F53" t="n">
-        <v>3797</v>
+        <v>706</v>
       </c>
       <c r="G53" t="n">
-        <v>12.77777777777778</v>
+        <v>3.079268292682927</v>
       </c>
       <c r="H53" t="n">
-        <v>456.7815448735263</v>
+        <v>82.45258795702544</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2303,33 +2303,33 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>三商壽</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>群益金鼎</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>4799</v>
+        <v>3875</v>
       </c>
       <c r="F54" t="n">
-        <v>3797</v>
+        <v>3875</v>
       </c>
       <c r="G54" t="n">
-        <v>12.77777777777778</v>
+        <v>8.072115384615385</v>
       </c>
       <c r="H54" t="n">
-        <v>456.7815448735263</v>
+        <v>276.5668050811561</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -2338,33 +2338,33 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>華南金</t>
+          <t>裕民</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36523</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>41392</v>
+        <v>2130</v>
       </c>
       <c r="F55" t="n">
-        <v>4869</v>
+        <v>2130</v>
       </c>
       <c r="G55" t="n">
-        <v>237.3313953488372</v>
+        <v>4.604477611940299</v>
       </c>
       <c r="H55" t="n">
-        <v>4651.361502313855</v>
+        <v>197.8654900690148</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2373,33 +2373,33 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>華南金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>36523</v>
+        <v>495</v>
       </c>
       <c r="E56" t="n">
-        <v>41392</v>
+        <v>6911</v>
       </c>
       <c r="F56" t="n">
-        <v>4869</v>
+        <v>6416</v>
       </c>
       <c r="G56" t="n">
-        <v>237.3313953488372</v>
+        <v>1.502793296089385</v>
       </c>
       <c r="H56" t="n">
-        <v>4651.361502313855</v>
+        <v>410.9195674353772</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -2408,33 +2408,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>凱基金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>7177</v>
+        <v>735</v>
       </c>
       <c r="F57" t="n">
-        <v>7177</v>
+        <v>735</v>
       </c>
       <c r="G57" t="n">
-        <v>2.933198380566802</v>
+        <v>-0.221183800623053</v>
       </c>
       <c r="H57" t="n">
-        <v>452.2568935458355</v>
+        <v>224.3089617020333</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2443,12 +2443,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>玉山金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2457,19 +2457,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>68394</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>79657</v>
+        <v>961</v>
       </c>
       <c r="F58" t="n">
-        <v>11263</v>
+        <v>961</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.013651877133106</v>
+        <v>-0.221183800623053</v>
       </c>
       <c r="H58" t="n">
-        <v>3585.372720052079</v>
+        <v>224.3089617020333</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -2478,33 +2478,33 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>玉山金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>群益金鼎</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>3048</v>
       </c>
       <c r="E59" t="n">
-        <v>8168</v>
+        <v>3249</v>
       </c>
       <c r="F59" t="n">
-        <v>8168</v>
+        <v>201</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.013651877133106</v>
+        <v>-0.221183800623053</v>
       </c>
       <c r="H59" t="n">
-        <v>3585.372720052079</v>
+        <v>224.3089617020333</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2513,33 +2513,33 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>元大金</t>
+          <t>星宇航空</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2842</v>
+        <v>291</v>
       </c>
       <c r="F60" t="n">
-        <v>1937</v>
+        <v>291</v>
       </c>
       <c r="G60" t="n">
-        <v>12.49003984063745</v>
+        <v>-1.101796407185629</v>
       </c>
       <c r="H60" t="n">
-        <v>982.6852491517303</v>
+        <v>28.95564425294106</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2548,33 +2548,33 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>遠東銀</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>富邦</t>
+          <t>彰銀-七賢</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2418</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>4568</v>
+        <v>2007</v>
       </c>
       <c r="F61" t="n">
-        <v>2150</v>
+        <v>2007</v>
       </c>
       <c r="G61" t="n">
-        <v>46.62295081967213</v>
+        <v>5.993630573248407</v>
       </c>
       <c r="H61" t="n">
-        <v>716.4021831792168</v>
+        <v>177.9154400419598</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -2583,33 +2583,33 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>三商壽</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>富邦證券</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2418</v>
+        <v>1002</v>
       </c>
       <c r="E62" t="n">
-        <v>4568</v>
+        <v>4799</v>
       </c>
       <c r="F62" t="n">
-        <v>2150</v>
+        <v>3797</v>
       </c>
       <c r="G62" t="n">
-        <v>46.62295081967213</v>
+        <v>13.85514018691589</v>
       </c>
       <c r="H62" t="n">
-        <v>716.4021831792168</v>
+        <v>457.882635880086</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2618,33 +2618,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>國票金</t>
+          <t>三商壽</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>第一金-自由</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>242</v>
+        <v>1002</v>
       </c>
       <c r="E63" t="n">
-        <v>1550</v>
+        <v>4799</v>
       </c>
       <c r="F63" t="n">
-        <v>1308</v>
+        <v>3797</v>
       </c>
       <c r="G63" t="n">
-        <v>24.02857142857143</v>
+        <v>13.85514018691589</v>
       </c>
       <c r="H63" t="n">
-        <v>287.4229813120994</v>
+        <v>457.882635880086</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2653,33 +2653,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華南金</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6804</v>
+        <v>36523</v>
       </c>
       <c r="E64" t="n">
-        <v>8969</v>
+        <v>41392</v>
       </c>
       <c r="F64" t="n">
-        <v>2165</v>
+        <v>4869</v>
       </c>
       <c r="G64" t="n">
-        <v>3.212307692307692</v>
+        <v>238.7543859649123</v>
       </c>
       <c r="H64" t="n">
-        <v>1814.375755955384</v>
+        <v>4664.984368982206</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -2688,33 +2688,33 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華南金</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3325</v>
+        <v>36523</v>
       </c>
       <c r="E65" t="n">
-        <v>6071</v>
+        <v>41392</v>
       </c>
       <c r="F65" t="n">
-        <v>2746</v>
+        <v>4869</v>
       </c>
       <c r="G65" t="n">
-        <v>3.212307692307692</v>
+        <v>238.7543859649123</v>
       </c>
       <c r="H65" t="n">
-        <v>1814.375755955384</v>
+        <v>4664.984368982206</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -2723,33 +2723,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>凱基金</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>富邦</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>515</v>
+        <v>7177</v>
       </c>
       <c r="F66" t="n">
-        <v>515</v>
+        <v>7177</v>
       </c>
       <c r="G66" t="n">
-        <v>16.23076923076923</v>
+        <v>3.439271255060729</v>
       </c>
       <c r="H66" t="n">
-        <v>140.6182704192755</v>
+        <v>452.1866002621801</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2758,33 +2758,33 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>玉山金</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>富邦證券</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>68394</v>
       </c>
       <c r="E67" t="n">
-        <v>515</v>
+        <v>79657</v>
       </c>
       <c r="F67" t="n">
-        <v>515</v>
+        <v>11263</v>
       </c>
       <c r="G67" t="n">
-        <v>16.23076923076923</v>
+        <v>-2.506003430531732</v>
       </c>
       <c r="H67" t="n">
-        <v>140.6182704192755</v>
+        <v>3594.597959091789</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -2793,33 +2793,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>文曄</t>
+          <t>玉山金</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>群益金鼎</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>4441</v>
+        <v>8168</v>
       </c>
       <c r="F68" t="n">
-        <v>4441</v>
+        <v>8168</v>
       </c>
       <c r="G68" t="n">
-        <v>34.58677685950413</v>
+        <v>-2.506003430531732</v>
       </c>
       <c r="H68" t="n">
-        <v>616.7750085379797</v>
+        <v>3594.597959091789</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -2828,33 +2828,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>2885</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>文曄</t>
+          <t>元大金</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>國泰證券</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="E69" t="n">
-        <v>4441</v>
+        <v>2842</v>
       </c>
       <c r="F69" t="n">
-        <v>4441</v>
+        <v>1937</v>
       </c>
       <c r="G69" t="n">
-        <v>34.58677685950413</v>
+        <v>12.58730158730159</v>
       </c>
       <c r="H69" t="n">
-        <v>616.7750085379797</v>
+        <v>980.7269705450351</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -2863,33 +2863,33 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>欣興</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中國信託</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-46</v>
+        <v>2418</v>
       </c>
       <c r="E70" t="n">
-        <v>773</v>
+        <v>4568</v>
       </c>
       <c r="F70" t="n">
-        <v>819</v>
+        <v>2150</v>
       </c>
       <c r="G70" t="n">
-        <v>1.949019607843137</v>
+        <v>47.79508196721311</v>
       </c>
       <c r="H70" t="n">
-        <v>146.0788582370433</v>
+        <v>716.1967841973471</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -2898,33 +2898,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>欣興</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>富邦證券</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-225</v>
+        <v>2418</v>
       </c>
       <c r="E71" t="n">
-        <v>602</v>
+        <v>4568</v>
       </c>
       <c r="F71" t="n">
-        <v>827</v>
+        <v>2150</v>
       </c>
       <c r="G71" t="n">
-        <v>1.949019607843137</v>
+        <v>47.79508196721311</v>
       </c>
       <c r="H71" t="n">
-        <v>146.0788582370433</v>
+        <v>716.1967841973471</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -2933,33 +2933,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>欣興</t>
+          <t>國票金</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>第一金-自由</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="E72" t="n">
-        <v>619</v>
+        <v>1550</v>
       </c>
       <c r="F72" t="n">
-        <v>619</v>
+        <v>1308</v>
       </c>
       <c r="G72" t="n">
-        <v>1.949019607843137</v>
+        <v>24.02857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>146.0788582370433</v>
+        <v>287.4229813120994</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -2968,33 +2968,33 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>益登</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>國泰-新莊</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>6804</v>
       </c>
       <c r="E73" t="n">
-        <v>218</v>
+        <v>8969</v>
       </c>
       <c r="F73" t="n">
-        <v>201</v>
+        <v>2165</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3374233128834356</v>
+        <v>3.297546012269938</v>
       </c>
       <c r="H73" t="n">
-        <v>26.36728062379776</v>
+        <v>1811.581709351112</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3003,33 +3003,33 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>景碩</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>凱基-信義</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="E74" t="n">
-        <v>250</v>
+        <v>6071</v>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>2746</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04060913705583756</v>
+        <v>3.297546012269938</v>
       </c>
       <c r="H74" t="n">
-        <v>40.57304292103264</v>
+        <v>1811.581709351112</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3038,33 +3038,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>景碩</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>華南永昌</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-283</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>223</v>
+        <v>515</v>
       </c>
       <c r="F75" t="n">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04060913705583756</v>
+        <v>13.23684210526316</v>
       </c>
       <c r="H75" t="n">
-        <v>40.57304292103264</v>
+        <v>141.2405336144838</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3073,33 +3073,33 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>玉晶光</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>富邦證券</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>296</v>
+        <v>515</v>
       </c>
       <c r="F76" t="n">
-        <v>296</v>
+        <v>515</v>
       </c>
       <c r="G76" t="n">
-        <v>20.08333333333333</v>
+        <v>13.23684210526316</v>
       </c>
       <c r="H76" t="n">
-        <v>87.11482321765008</v>
+        <v>141.2405336144838</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3108,33 +3108,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>貿聯-KY</t>
+          <t>文曄</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>港商麥格理</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>398</v>
+        <v>4441</v>
       </c>
       <c r="F77" t="n">
-        <v>402</v>
+        <v>4441</v>
       </c>
       <c r="G77" t="n">
-        <v>8.888888888888889</v>
+        <v>34.58677685950413</v>
       </c>
       <c r="H77" t="n">
-        <v>61.16899921239896</v>
+        <v>616.7750085379797</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3143,33 +3143,33 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>大眾控</t>
+          <t>文曄</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>台新-建北</t>
+          <t>國泰證券</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2036</v>
+        <v>4441</v>
       </c>
       <c r="F78" t="n">
-        <v>2036</v>
+        <v>4441</v>
       </c>
       <c r="G78" t="n">
-        <v>2.326283987915408</v>
+        <v>34.58677685950413</v>
       </c>
       <c r="H78" t="n">
-        <v>134.578114765088</v>
+        <v>616.7750085379797</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3178,33 +3178,33 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>材料*-KY</t>
+          <t>欣興</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>第一金-自由</t>
+          <t>中國信託</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>-46</v>
       </c>
       <c r="E79" t="n">
-        <v>232</v>
+        <v>773</v>
       </c>
       <c r="F79" t="n">
-        <v>221</v>
+        <v>819</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5827814569536424</v>
+        <v>1.949019607843137</v>
       </c>
       <c r="H79" t="n">
-        <v>24.03675414262245</v>
+        <v>146.0788582370433</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -3213,33 +3213,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5371</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>中光電</t>
+          <t>欣興</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-636</v>
+        <v>-225</v>
       </c>
       <c r="E80" t="n">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="F80" t="n">
-        <v>1072</v>
+        <v>827</v>
       </c>
       <c r="G80" t="n">
-        <v>2.170731707317073</v>
+        <v>1.949019607843137</v>
       </c>
       <c r="H80" t="n">
-        <v>39.17229494031452</v>
+        <v>146.0788582370433</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -3248,33 +3248,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>廣運</t>
+          <t>欣興</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>251</v>
+        <v>619</v>
       </c>
       <c r="F81" t="n">
-        <v>251</v>
+        <v>619</v>
       </c>
       <c r="G81" t="n">
-        <v>2.343373493975903</v>
+        <v>1.949019607843137</v>
       </c>
       <c r="H81" t="n">
-        <v>31.39787946042172</v>
+        <v>146.0788582370433</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3283,33 +3283,33 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>廣運</t>
+          <t>益登</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>國泰證券</t>
+          <t>國泰-新莊</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E82" t="n">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="F82" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="G82" t="n">
-        <v>2.343373493975903</v>
+        <v>-0.32</v>
       </c>
       <c r="H82" t="n">
-        <v>31.39787946042172</v>
+        <v>26.19023001327304</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3318,33 +3318,33 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6152</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>百一</t>
+          <t>景碩</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>凱基-高美館</t>
+          <t>凱基-信義</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="F83" t="n">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>1.036144578313253</v>
+        <v>-0.06565656565656566</v>
       </c>
       <c r="H83" t="n">
-        <v>27.64512109866148</v>
+        <v>40.4975493690258</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -3353,33 +3353,33 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6176</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>瑞儀</t>
+          <t>景碩</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>華南永昌</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>620</v>
+        <v>-283</v>
       </c>
       <c r="E84" t="n">
-        <v>819</v>
+        <v>223</v>
       </c>
       <c r="F84" t="n">
-        <v>199</v>
+        <v>506</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.310077519379845</v>
+        <v>-0.06565656565656566</v>
       </c>
       <c r="H84" t="n">
-        <v>133.7186177230949</v>
+        <v>40.4975493690258</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3388,33 +3388,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6176</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>瑞儀</t>
+          <t>玉晶光</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>富邦</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F85" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.310077519379845</v>
+        <v>20.08333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>133.7186177230949</v>
+        <v>87.11482321765008</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -3423,33 +3423,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6176</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>瑞儀</t>
+          <t>聯穎</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>富邦證券</t>
+          <t>合庫</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="F86" t="n">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.310077519379845</v>
+        <v>3.089285714285714</v>
       </c>
       <c r="H86" t="n">
-        <v>133.7186177230949</v>
+        <v>54.22823041577121</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -3458,33 +3458,33 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>樺漢</t>
+          <t>聯穎</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>凱基</t>
+          <t>合庫證券</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>477</v>
+        <v>230</v>
       </c>
       <c r="F87" t="n">
-        <v>477</v>
+        <v>210</v>
       </c>
       <c r="G87" t="n">
-        <v>32.78571428571428</v>
+        <v>3.089285714285714</v>
       </c>
       <c r="H87" t="n">
-        <v>128.1262469786545</v>
+        <v>54.22823041577121</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -3493,33 +3493,33 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6442</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>光聖</t>
+          <t>貿聯-KY</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>港商麥格理</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E88" t="n">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="F88" t="n">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="G88" t="n">
-        <v>5.901408450704225</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="H88" t="n">
-        <v>39.87665085864426</v>
+        <v>61.16899921239896</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -3528,33 +3528,33 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>元晶</t>
+          <t>大眾控</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>台新-建北</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1239</v>
+        <v>2036</v>
       </c>
       <c r="F89" t="n">
-        <v>1239</v>
+        <v>2036</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1322834645669291</v>
+        <v>1.836858006042296</v>
       </c>
       <c r="H89" t="n">
-        <v>60.24412596454383</v>
+        <v>134.7045835121762</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -3563,33 +3563,33 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6531</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>愛普*</t>
+          <t>材料*-KY</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>第一金-自由</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>453</v>
+        <v>232</v>
       </c>
       <c r="F90" t="n">
-        <v>453</v>
+        <v>221</v>
       </c>
       <c r="G90" t="n">
-        <v>2.96</v>
+        <v>0.4039735099337748</v>
       </c>
       <c r="H90" t="n">
-        <v>46.29067580697722</v>
+        <v>23.64920227432462</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -3598,33 +3598,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>5371</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>中光電</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>369</v>
+        <v>-636</v>
       </c>
       <c r="E91" t="n">
-        <v>8494</v>
+        <v>436</v>
       </c>
       <c r="F91" t="n">
-        <v>8125</v>
+        <v>1072</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.428743961352657</v>
+        <v>1.983739837398374</v>
       </c>
       <c r="H91" t="n">
-        <v>812.0054821354403</v>
+        <v>39.02672736489279</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -3633,33 +3633,33 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>6125</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>廣運</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-13730</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>6637</v>
+        <v>251</v>
       </c>
       <c r="F92" t="n">
-        <v>20367</v>
+        <v>251</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.428743961352657</v>
+        <v>2.598802395209581</v>
       </c>
       <c r="H92" t="n">
-        <v>812.0054821354403</v>
+        <v>31.15933786052747</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -3668,33 +3668,33 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>6125</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>廣運</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>國泰證券</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-25426</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>19054</v>
+        <v>251</v>
       </c>
       <c r="F93" t="n">
-        <v>44480</v>
+        <v>251</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.428743961352657</v>
+        <v>2.598802395209581</v>
       </c>
       <c r="H93" t="n">
-        <v>812.0054821354403</v>
+        <v>31.15933786052747</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -3703,33 +3703,33 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8043</t>
+          <t>6152</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>蜜望實</t>
+          <t>百一</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>中國信託-松江</t>
+          <t>凱基-高美館</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E94" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="G94" t="n">
-        <v>0.441108545034642</v>
+        <v>1.008032128514056</v>
       </c>
       <c r="H94" t="n">
-        <v>71.1961418968086</v>
+        <v>27.65761167584553</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -3738,33 +3738,33 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8043</t>
+          <t>6176</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>蜜望實</t>
+          <t>瑞儀</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>富邦</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="E95" t="n">
-        <v>388</v>
+        <v>819</v>
       </c>
       <c r="F95" t="n">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="G95" t="n">
-        <v>0.441108545034642</v>
+        <v>-1.1953125</v>
       </c>
       <c r="H95" t="n">
-        <v>71.1961418968086</v>
+        <v>134.2376584801459</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -3773,33 +3773,33 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8043</t>
+          <t>6176</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>蜜望實</t>
+          <t>瑞儀</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>548</v>
+        <v>281</v>
       </c>
       <c r="F96" t="n">
-        <v>548</v>
+        <v>281</v>
       </c>
       <c r="G96" t="n">
-        <v>0.441108545034642</v>
+        <v>-1.1953125</v>
       </c>
       <c r="H96" t="n">
-        <v>71.1961418968086</v>
+        <v>134.2376584801459</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -3808,33 +3808,33 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>6176</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>華東</t>
+          <t>瑞儀</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>富邦證券</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>798</v>
+        <v>281</v>
       </c>
       <c r="F97" t="n">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="G97" t="n">
-        <v>2.677966101694915</v>
+        <v>-1.1953125</v>
       </c>
       <c r="H97" t="n">
-        <v>61.99346312223739</v>
+        <v>134.2376584801459</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -3843,12 +3843,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8112</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>至上</t>
+          <t>樺漢</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3857,19 +3857,19 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>628</v>
+        <v>477</v>
       </c>
       <c r="F98" t="n">
-        <v>157</v>
+        <v>477</v>
       </c>
       <c r="G98" t="n">
-        <v>1.556900726392252</v>
+        <v>32.78571428571428</v>
       </c>
       <c r="H98" t="n">
-        <v>98.5280985110158</v>
+        <v>128.1262469786545</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
@@ -3878,33 +3878,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8112</t>
+          <t>6442</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>至上</t>
+          <t>光聖</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F99" t="n">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G99" t="n">
-        <v>1.556900726392252</v>
+        <v>6.217391304347826</v>
       </c>
       <c r="H99" t="n">
-        <v>98.5280985110158</v>
+        <v>40.38158781265417</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -3913,33 +3913,33 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8112</t>
+          <t>6443</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>至上</t>
+          <t>元晶</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>國泰證券</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>328</v>
+        <v>1239</v>
       </c>
       <c r="F100" t="n">
-        <v>328</v>
+        <v>1239</v>
       </c>
       <c r="G100" t="n">
-        <v>1.556900726392252</v>
+        <v>0.1548183254344392</v>
       </c>
       <c r="H100" t="n">
-        <v>98.5280985110158</v>
+        <v>60.33226601475242</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -3948,12 +3948,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>愛普*</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3965,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1297</v>
+        <v>453</v>
       </c>
       <c r="F101" t="n">
-        <v>1297</v>
+        <v>453</v>
       </c>
       <c r="G101" t="n">
-        <v>2.888888888888889</v>
+        <v>3.01</v>
       </c>
       <c r="H101" t="n">
-        <v>105.2551438132375</v>
+        <v>46.23359550732944</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -3983,33 +3983,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8422</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>可寧衛*</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="E102" t="n">
-        <v>10765</v>
+        <v>8494</v>
       </c>
       <c r="F102" t="n">
-        <v>10765</v>
+        <v>8125</v>
       </c>
       <c r="G102" t="n">
-        <v>22.82051282051282</v>
+        <v>-0.9323671497584541</v>
       </c>
       <c r="H102" t="n">
-        <v>772.9563188999489</v>
+        <v>811.9494523647126</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -4018,33 +4018,33 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8422</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>可寧衛*</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-13730</v>
       </c>
       <c r="E103" t="n">
-        <v>10765</v>
+        <v>6637</v>
       </c>
       <c r="F103" t="n">
-        <v>10765</v>
+        <v>20367</v>
       </c>
       <c r="G103" t="n">
-        <v>22.82051282051282</v>
+        <v>-0.9323671497584541</v>
       </c>
       <c r="H103" t="n">
-        <v>772.9563188999489</v>
+        <v>811.9494523647126</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -4053,33 +4053,33 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>統一實</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>富邦</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-25426</v>
       </c>
       <c r="E104" t="n">
-        <v>7204</v>
+        <v>19054</v>
       </c>
       <c r="F104" t="n">
-        <v>7204</v>
+        <v>44480</v>
       </c>
       <c r="G104" t="n">
-        <v>58.99056603773585</v>
+        <v>-0.9323671497584541</v>
       </c>
       <c r="H104" t="n">
-        <v>1047.134570833168</v>
+        <v>811.9494523647126</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -4088,33 +4088,33 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>統一實</t>
+          <t>蜜望實</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>富邦證券</t>
+          <t>中國信託-松江</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>7204</v>
+        <v>500</v>
       </c>
       <c r="F105" t="n">
-        <v>7204</v>
+        <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>58.99056603773585</v>
+        <v>0.6114942528735632</v>
       </c>
       <c r="H105" t="n">
-        <v>1047.134570833168</v>
+        <v>71.03113717393866</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -4123,33 +4123,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9928</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>中視</t>
+          <t>蜜望實</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>合庫-自強</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="F106" t="n">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="G106" t="n">
-        <v>7.8</v>
+        <v>0.6114942528735632</v>
       </c>
       <c r="H106" t="n">
-        <v>54.27183043667652</v>
+        <v>71.03113717393866</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -4158,33 +4158,33 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9938</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>百和</t>
+          <t>蜜望實</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>富邦-和美</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>254</v>
+        <v>548</v>
       </c>
       <c r="F107" t="n">
-        <v>197</v>
+        <v>548</v>
       </c>
       <c r="G107" t="n">
-        <v>11.075</v>
+        <v>0.6114942528735632</v>
       </c>
       <c r="H107" t="n">
-        <v>45.20800218477324</v>
+        <v>71.03113717393866</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -4193,33 +4193,33 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>9941</t>
+          <t>8112</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>裕融</t>
+          <t>至上</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>元富</t>
+          <t>凱基</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="E108" t="n">
-        <v>509</v>
+        <v>628</v>
       </c>
       <c r="F108" t="n">
-        <v>509</v>
+        <v>157</v>
       </c>
       <c r="G108" t="n">
-        <v>16.47222222222222</v>
+        <v>1.533980582524272</v>
       </c>
       <c r="H108" t="n">
-        <v>85.77961333260987</v>
+        <v>98.45678494587344</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -4228,33 +4228,33 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>8112</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>潤泰新</t>
+          <t>至上</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>中國信託-永康</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1246</v>
+        <v>328</v>
       </c>
       <c r="F109" t="n">
-        <v>1246</v>
+        <v>328</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8917525773195877</v>
+        <v>1.533980582524272</v>
       </c>
       <c r="H109" t="n">
-        <v>171.1421057079039</v>
+        <v>98.45678494587344</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -4263,35 +4263,385 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>8112</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>至上</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>國泰證券</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>328</v>
+      </c>
+      <c r="F110" t="n">
+        <v>328</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.533980582524272</v>
+      </c>
+      <c r="H110" t="n">
+        <v>98.45678494587344</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>8299</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>群聯</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>美商高盛</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1297</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1297</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.793103448275862</v>
+      </c>
+      <c r="H111" t="n">
+        <v>105.2788025195336</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>8422</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>可寧衛*</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>永豐金</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10765</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10765</v>
+      </c>
+      <c r="G112" t="n">
+        <v>22.88723404255319</v>
+      </c>
+      <c r="H112" t="n">
+        <v>771.2997849467206</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>8422</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>可寧衛*</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>永豐金證券</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10765</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10765</v>
+      </c>
+      <c r="G113" t="n">
+        <v>22.88723404255319</v>
+      </c>
+      <c r="H113" t="n">
+        <v>771.2997849467206</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>9907</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>統一實</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富邦</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7204</v>
+      </c>
+      <c r="F114" t="n">
+        <v>7204</v>
+      </c>
+      <c r="G114" t="n">
+        <v>59.40952380952381</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1052.147901047023</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>9907</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>統一實</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富邦證券</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7204</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7204</v>
+      </c>
+      <c r="G115" t="n">
+        <v>59.40952380952381</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1052.147901047023</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>9928</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>中視</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>合庫-自強</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>40</v>
+      </c>
+      <c r="E116" t="n">
+        <v>233</v>
+      </c>
+      <c r="F116" t="n">
+        <v>193</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H116" t="n">
+        <v>54.27183043667652</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>9938</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>百和</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富邦-和美</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>57</v>
+      </c>
+      <c r="E117" t="n">
+        <v>254</v>
+      </c>
+      <c r="F117" t="n">
+        <v>197</v>
+      </c>
+      <c r="G117" t="n">
+        <v>11.61538461538461</v>
+      </c>
+      <c r="H117" t="n">
+        <v>45.6679176715278</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>9941</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>裕融</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>元富</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>509</v>
+      </c>
+      <c r="F118" t="n">
+        <v>509</v>
+      </c>
+      <c r="G118" t="n">
+        <v>16.47222222222222</v>
+      </c>
+      <c r="H118" t="n">
+        <v>85.77961333260987</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>9945</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>潤泰新</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中國信託-永康</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.191709844559586</v>
+      </c>
+      <c r="H119" t="n">
+        <v>171.6260455590838</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>9945</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>潤泰新</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>港商野村</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
         <v>650</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F120" t="n">
         <v>650</v>
       </c>
-      <c r="G110" t="n">
-        <v>0.8917525773195877</v>
-      </c>
-      <c r="H110" t="n">
-        <v>171.1421057079039</v>
-      </c>
-      <c r="I110" t="b">
+      <c r="G120" t="n">
+        <v>1.191709844559586</v>
+      </c>
+      <c r="H120" t="n">
+        <v>171.6260455590838</v>
+      </c>
+      <c r="I120" t="b">
         <v>1</v>
       </c>
     </row>
